--- a/data/trans_bre/P25_10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,23</t>
+          <t>28,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,38</t>
+          <t>20,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,57</t>
+          <t>25,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,53</t>
+          <t>29,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>304,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>185,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>306,34%</t>
+          <t>335,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>182,39%</t>
+          <t>163,45%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>337,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>176,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,74; 33,54</t>
+          <t>18,11; 37,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,47; 26,41</t>
+          <t>13,57; 26,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,07; 29,22</t>
+          <t>19,39; 31,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 25,19</t>
+          <t>18,49; 40,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>145,23; 583,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>104,15; 309,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>168,63; 553,09</t>
+          <t>133,84; 797,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,35; 313,38</t>
+          <t>85,48; 315,85</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>192,44; 574,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>77,01; 373,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,8</t>
+          <t>20,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,78</t>
+          <t>13,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,72</t>
+          <t>21,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>346,0%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>222,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>175,41%</t>
+          <t>328,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>165,13%</t>
+          <t>202,89%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>186,77%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>286,16%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,55; 24,0</t>
+          <t>14,78; 25,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,53; 15,85</t>
+          <t>8,2; 16,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 16,68</t>
+          <t>9,17; 17,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 15,71</t>
+          <t>15,85; 26,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>198,9; 547,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>98,97; 385,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,63; 292,22</t>
+          <t>170,66; 589,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,87; 267,97</t>
+          <t>84,65; 372,39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>93,8; 301,93</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>168,09; 477,19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,35</t>
+          <t>15,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>14,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>336,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>267,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>171,26%</t>
+          <t>307,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>313,42%</t>
+          <t>286,76%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>174,94%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>231,14%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 18,67</t>
+          <t>10,62; 20,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 15,66</t>
+          <t>8,51; 16,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,43</t>
+          <t>5,62; 12,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 13,1</t>
+          <t>9,23; 19,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>155,38; 617,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,83; 499,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,5; 334,73</t>
+          <t>151,33; 659,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,04; 856,39</t>
+          <t>146,59; 572,5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>71,08; 324,15</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>107,26; 448,44</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,78</t>
+          <t>18,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,65</t>
+          <t>14,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,56</t>
+          <t>19,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>341,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>226,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>213,83%</t>
+          <t>289,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>191,08%</t>
+          <t>297,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>218,48%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 22,58</t>
+          <t>14,24; 23,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 17,34</t>
+          <t>9,15; 19,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,7; 16,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,62</t>
+          <t>12,83; 25,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>244,57; 479,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>150,63; 317,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>141,97; 298,74</t>
+          <t>175,39; 485,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>120,13; 277,7</t>
+          <t>108,04; 606,86</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>107,83; 370,98</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19,51</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,64</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14,97</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20,9</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>312,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>227,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>227,2%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>237,64%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16,63; 22,38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,07; 17,24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 17,57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 23,96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>228,0; 442,62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>156,57; 324,08</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>159,85; 313,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>175,32; 323,95</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>28,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>20,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>25,52</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>29,89</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>335,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>163,45%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>337,42%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>176,74%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>27.78260980004314</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>20.90567592002381</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>25.65345375305531</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>29.27441853185519</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>3.021823815219861</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.682008506600995</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>3.339705430727752</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.673238233767029</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>18,11; 37,48</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>13,57; 26,84</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>19,39; 31,45</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>18,49; 40,59</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>133,84; 797,8</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>85,48; 315,85</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>192,44; 574,04</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>77,01; 373,64</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>16.87758205096185</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>13.76908628312916</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>19.4401850802787</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>18.0260094661545</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>1.110909299467673</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.8788148568423791</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>1.863066755503186</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.6844136402484861</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>36.62089359684389</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>27.39906377964387</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>31.5053712132255</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>39.89687699004666</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>7.251124332742362</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.142838033570668</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>5.653313526578115</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.514791566272144</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>20,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,91</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,29</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>21,26</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>328,04%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>202,89%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>186,77%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>286,16%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>14,78; 25,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>8,2; 16,8</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>9,17; 17,32</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>15,85; 26,95</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>170,66; 589,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>84,65; 372,39</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>93,8; 301,93</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>168,09; 477,19</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>20.58688076624378</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.86002266867684</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.92468734601159</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>21.36805842076012</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>3.428741480112388</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.977722842587002</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.776264680075814</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>2.949391736847881</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>15,28</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,02</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>14,43</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>307,85%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>286,76%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>174,94%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>231,14%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15.34256822502846</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7.885285751332711</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>8.681536880429466</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>15.96691898011395</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>1.839467108252793</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.7579711995116893</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.8764395006281356</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>1.729560754215861</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>10,62; 20,84</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8,51; 16,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,62; 12,5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>9,23; 19,07</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>151,33; 659,27</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>146,59; 572,5</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>71,08; 324,15</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>107,26; 448,44</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>25.73953637776019</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.86528984382518</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.75364715701242</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>27.06470008823741</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>6.294948810284544</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.632104475363306</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.878559213883785</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.880407598053021</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>18,65</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>14,3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>19,1</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>289,98%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>297,7%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>218,48%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>15.15535255937509</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.68624770854655</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.969770612454569</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>14.35704422822321</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>3.204813225569397</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.931940786577826</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.733321723350808</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>2.326071296534914</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>14,24; 23,15</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>9,15; 19,11</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>12,83; 25,37</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>175,39; 485,48</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>108,04; 606,86</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>107,83; 370,98</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>10.25498324202592</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>8.796594660944253</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>5.508687606854103</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>9.147640736652107</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>1.553468595662655</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>1.532113725759727</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.6969816023840466</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>1.078847339349878</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.27711653263722</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.00188017601907</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.32231499928723</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.9954244389774</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>6.992212003515148</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.88909590088554</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>3.219678860617552</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>4.530934613608469</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>19,51</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>14,64</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>14,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>20,9</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>312,31%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>227,64%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>227,2%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>237,64%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>16,63; 22,38</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>12,07; 17,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>12,31; 17,57</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>17,62; 23,96</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>228,0; 442,62</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>156,57; 324,08</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>159,85; 313,37</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>175,32; 323,95</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>20.14424352704046</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>14.78102649087627</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>14.86955065569154</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>21.57068122923396</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>3.322980396831909</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.113054456345111</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.218176842024871</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>2.447475741624982</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>16.69308917363398</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>11.95350334535907</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>12.16596173547317</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>17.56536078156313</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>2.209440879754595</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>1.319494155494103</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>1.552689422191668</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>1.664572568390838</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>23.62276585807883</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>17.53401914167567</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17.46626835721662</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>25.45921445758695</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>5.059513004710574</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.073630646475502</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.058013734612036</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>3.517710288743729</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
